--- a/filter sizes.xlsx
+++ b/filter sizes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>Over Estimation</t>
   </si>
@@ -54,6 +54,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -120,10 +123,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -131,7 +130,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -442,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,10 +465,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="9"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -592,13 +598,13 @@
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="10">
-        <v>48</v>
+      <c r="E9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -622,325 +628,324 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>16</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="9">
+        <f>(C14 + 2) * 2^(B15) / 1000/ 8</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <f>(D14 + 2) * 2^(B15) / 1000/ 8</f>
+        <v>98.304000000000002</v>
+      </c>
+      <c r="E15" s="9">
+        <f>(E14 + 2) * 2^(B15) / 1000/ 8</f>
+        <v>163.84</v>
+      </c>
+      <c r="F15" s="9">
+        <f>(F14 + 2) * 2^(B15) / 1000/ 8</f>
+        <v>294.91199999999998</v>
+      </c>
+      <c r="G15" s="9">
+        <f>(G14 + 2) * 2^(B15)/1000/ 8</f>
+        <v>557.05600000000004</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <f>(C14 + 2) * 2^(B16) / 1000/ 8</f>
+        <v>32.768000000000001</v>
+      </c>
+      <c r="D16" s="9">
+        <f>(D14 + 2) * 2^(B16) / 1000/ 8</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="E16" s="9">
+        <f>(E14 + 2) * 2^(B16) / 1000/ 8</f>
+        <v>81.92</v>
+      </c>
+      <c r="F16" s="9">
+        <f>(F14 + 2) * 2^(B16) / 1000/ 8</f>
+        <v>147.45599999999999</v>
+      </c>
+      <c r="G16" s="9">
+        <f>(G14 + 2) * 2^(B16)/1000/ 8</f>
+        <v>278.52800000000002</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="9">
+        <f>(C14 + 2) * 2^(B17) / 1000/ 8</f>
+        <v>16.384</v>
+      </c>
+      <c r="D17" s="9">
+        <f>(D14 + 2) * 2^(B17) / 1000/ 8</f>
+        <v>24.576000000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <f>(E14 + 2) * 2^(B17) / 1000/ 8</f>
+        <v>40.96</v>
+      </c>
+      <c r="F17" s="9">
+        <f>(F14 + 2) * 2^(B17) / 1000/ 8</f>
+        <v>73.727999999999994</v>
+      </c>
+      <c r="G17" s="9">
+        <f>(G14 + 2) * 2^(B17)/1000/ 8</f>
+        <v>139.26400000000001</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9">
+        <f>(D14 + 2) * 2^(B18) / 1000/ 8</f>
+        <v>12.288</v>
+      </c>
+      <c r="E18" s="9">
+        <f>(E14 + 2) * 2^(B18) / 1000/ 8</f>
+        <v>20.48</v>
+      </c>
+      <c r="F18" s="9">
+        <f>(F14 + 2) * 2^(B18) / 1000/ 8</f>
+        <v>36.863999999999997</v>
+      </c>
+      <c r="G18" s="9">
+        <f>(G14 + 2) * 2^(B18)/1000/ 8</f>
+        <v>69.632000000000005</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12">
+        <f>(F14 + 2) * 2^(B19) / 1000/ 8</f>
+        <v>18.431999999999999</v>
+      </c>
+      <c r="G19" s="11">
+        <f>(G14 + 2) * 2^(B19)/1000/ 8</f>
+        <v>34.816000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
         <v>12</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
         <v>8</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F24" s="1">
         <v>16</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G24" s="1">
         <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6">
-        <f>(C22 + 2) * 2^(B23) / 1000/ 8</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="D23" s="6">
-        <f>(D22 + 2) * 2^(B23) / 1000/ 8</f>
-        <v>98.304000000000002</v>
-      </c>
-      <c r="E23" s="6">
-        <f>(E22 + 2) * 2^(B23) / 1000/ 8</f>
-        <v>163.84</v>
-      </c>
-      <c r="F23" s="6">
-        <f>(F22 + 2) * 2^(B23) / 1000/ 8</f>
-        <v>294.91199999999998</v>
-      </c>
-      <c r="G23" s="6">
-        <f>(G22 + 2) * 2^(B23)/1000/ 8</f>
-        <v>557.05600000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>16</v>
-      </c>
-      <c r="C24" s="6">
-        <f>(C22 + 2) * 2^(B24) / 1000/ 8</f>
-        <v>32.768000000000001</v>
-      </c>
-      <c r="D24" s="6">
-        <f>(D22 + 2) * 2^(B24) / 1000/ 8</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="E24" s="6">
-        <f>(E22 + 2) * 2^(B24) / 1000/ 8</f>
-        <v>81.92</v>
-      </c>
-      <c r="F24" s="6">
-        <f>(F22 + 2) * 2^(B24) / 1000/ 8</f>
-        <v>147.45599999999999</v>
-      </c>
-      <c r="G24" s="6">
-        <f>(G22 + 2) * 2^(B24)/1000/ 8</f>
-        <v>278.52800000000002</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>15</v>
-      </c>
-      <c r="C25" s="6">
-        <f>(C22 + 2) * 2^(B25) / 1000/ 8</f>
-        <v>16.384</v>
-      </c>
-      <c r="D25" s="6">
-        <f>(D22 + 2) * 2^(B25) / 1000/ 8</f>
-        <v>24.576000000000001</v>
-      </c>
-      <c r="E25" s="6">
-        <f>(E22 + 2) * 2^(B25) / 1000/ 8</f>
-        <v>40.96</v>
-      </c>
-      <c r="F25" s="6">
-        <f>(F22 + 2) * 2^(B25) / 1000/ 8</f>
-        <v>73.727999999999994</v>
-      </c>
-      <c r="G25" s="6">
-        <f>(G22 + 2) * 2^(B25)/1000/ 8</f>
-        <v>139.26400000000001</v>
+        <v>17</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6">
-        <f>(D22 + 2) * 2^(B26) / 1000/ 8</f>
-        <v>12.288</v>
-      </c>
-      <c r="E26" s="6">
-        <f>(E22 + 2) * 2^(B26) / 1000/ 8</f>
-        <v>20.48</v>
-      </c>
-      <c r="F26" s="6">
-        <f>(F22 + 2) * 2^(B26) / 1000/ 8</f>
-        <v>36.863999999999997</v>
-      </c>
-      <c r="G26" s="6">
-        <f>(G22 + 2) * 2^(B26)/1000/ 8</f>
-        <v>69.632000000000005</v>
+        <v>16</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="11">
-        <f>(E22 + 2) * 2^(B27) / 1000/ 8</f>
-        <v>10.24</v>
-      </c>
-      <c r="F27" s="7">
-        <f>(F22 + 2) * 2^(B27) / 1000/ 8</f>
-        <v>18.431999999999999</v>
-      </c>
-      <c r="G27" s="11">
-        <f>(G22 + 2) * 2^(B27)/1000/ 8</f>
-        <v>34.816000000000003</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
         <v>12</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>4</v>
       </c>
     </row>
